--- a/EXPERIMENT_TRACKING.xlsx
+++ b/EXPERIMENT_TRACKING.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\Desktop\deblur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA\deblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41436AE-9357-4765-AF68-16E3D6C3DE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD0D28-003F-4D15-973A-2FFC53089EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,59 +25,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t xml:space="preserve"> version_0 </t>
   </si>
   <si>
-    <t xml:space="preserve"> MSE </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_1 </t>
   </si>
   <si>
     <t xml:space="preserve"> version_2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> PSNRloss </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L1RandomPerceptualLoss </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> LPIPSLoss </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_5 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L1RandomPerceptualLossMini </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_6 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L1RandomPerceptualLossLastLayer </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_7 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L2RandomPerceptualLossMini </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L2RandomPerceptualLoss </t>
-  </si>
-  <si>
     <t xml:space="preserve"> version_9 </t>
   </si>
   <si>
@@ -115,6 +91,48 @@
   </si>
   <si>
     <t>0.2L1RandomPerceptualLossMini+0.8LPIPSLoss</t>
+  </si>
+  <si>
+    <t>0.8L1RandomPerceptualLossMini+0.2LPIPSLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> version_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> version_12</t>
+  </si>
+  <si>
+    <t>10L1RandomPerceptualLossMini+LPIPSLoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> version_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1RandomPerceptualLossMini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2RandomPerceptualLossMini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2RandomPerceptualLoss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1RandomPerceptualLossLastLayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPIPSLoss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1RandomPerceptualLoss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSNRloss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE </t>
+  </si>
+  <si>
+    <t>last.ckpt</t>
   </si>
 </sst>
 </file>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,28 +506,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,7 +538,7 @@
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -537,13 +555,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -560,13 +578,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -583,13 +601,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -606,13 +624,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -629,13 +647,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -652,125 +670,255 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.803000000000001</v>
+        <v>29.161300000000001</v>
       </c>
       <c r="F8">
-        <v>0.87270000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G8">
-        <v>0.11219999999999999</v>
+        <v>0.1203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.6647</v>
+        <v>28.803000000000001</v>
       </c>
       <c r="F9">
-        <v>0.82450000000000001</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="G9">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
+        <v>0.11219999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.724399999999999</v>
+        <v>26.6647</v>
       </c>
       <c r="F10">
-        <v>0.87390000000000001</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="G10">
-        <v>0.14549999999999999</v>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.326499999999999</v>
+        <v>28.724399999999999</v>
       </c>
       <c r="F11">
-        <v>0.8649</v>
+        <v>0.87390000000000001</v>
       </c>
       <c r="G11">
-        <v>0.1547</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
+        <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="b">
         <v>0</v>
+      </c>
+      <c r="E12">
+        <v>28.326499999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.8649</v>
+      </c>
+      <c r="G12">
+        <v>0.1547</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>27.650700000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="G13">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>28.956499999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G14">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>28.9405</v>
+      </c>
+      <c r="F15">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="G15">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>29.511399999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>29.539400000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.1094</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E7 E9:E1048576">
     <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F7 F9:F1048576">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G7 G9:G1048576">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXPERIMENT_TRACKING.xlsx
+++ b/EXPERIMENT_TRACKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA\deblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD0D28-003F-4D15-973A-2FFC53089EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCDD47-9FDB-4082-8DCA-463E0F385F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t xml:space="preserve"> version_0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_9 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t xml:space="preserve">Experiment </t>
   </si>
@@ -87,27 +57,15 @@
     <t xml:space="preserve">Exploding loss </t>
   </si>
   <si>
-    <t xml:space="preserve"> version_10</t>
-  </si>
-  <si>
     <t>0.2L1RandomPerceptualLossMini+0.8LPIPSLoss</t>
   </si>
   <si>
     <t>0.8L1RandomPerceptualLossMini+0.2LPIPSLoss</t>
   </si>
   <si>
-    <t xml:space="preserve"> version_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> version_12</t>
-  </si>
-  <si>
     <t>10L1RandomPerceptualLossMini+LPIPSLoss</t>
   </si>
   <si>
-    <t xml:space="preserve"> version_13</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1RandomPerceptualLossMini </t>
   </si>
   <si>
@@ -133,6 +91,57 @@
   </si>
   <si>
     <t>last.ckpt</t>
+  </si>
+  <si>
+    <t>version_14</t>
+  </si>
+  <si>
+    <t>version_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version_9 </t>
+  </si>
+  <si>
+    <t>version_10</t>
+  </si>
+  <si>
+    <t>version_11</t>
+  </si>
+  <si>
+    <t>version_12</t>
+  </si>
+  <si>
+    <t>Use last.ckpt from version_13, use 'A' dataset</t>
+  </si>
+  <si>
+    <t>version_15</t>
   </si>
 </sst>
 </file>
@@ -487,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,44 +510,44 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -555,370 +564,783 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>28.9359</v>
+        <v>27.690300000000001</v>
       </c>
       <c r="F3">
-        <v>0.87519999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="G3">
-        <v>0.16889999999999999</v>
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>28.917400000000001</v>
+        <v>28.9359</v>
       </c>
       <c r="F4">
-        <v>0.87670000000000003</v>
+        <v>0.87519999999999998</v>
       </c>
       <c r="G4">
-        <v>0.16550000000000001</v>
+        <v>0.16889999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29.092400000000001</v>
+        <v>28.951899999999998</v>
       </c>
       <c r="F5">
-        <v>0.88519999999999999</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="G5">
-        <v>0.1217</v>
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.938500000000001</v>
+        <v>28.917400000000001</v>
       </c>
       <c r="F6">
-        <v>0.39639999999999997</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="G6">
-        <v>7.85E-2</v>
+        <v>0.16550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29.134</v>
+        <v>28.9312</v>
       </c>
       <c r="F7">
-        <v>0.88560000000000005</v>
+        <v>0.87709999999999999</v>
       </c>
       <c r="G7">
-        <v>0.1216</v>
+        <v>0.1651</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.161300000000001</v>
+        <v>29.092400000000001</v>
       </c>
       <c r="F8">
-        <v>0.88600000000000001</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="G8">
-        <v>0.1203</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.803000000000001</v>
+        <v>29.1511</v>
       </c>
       <c r="F9">
-        <v>0.87270000000000003</v>
+        <v>0.88570000000000004</v>
       </c>
       <c r="G9">
-        <v>0.11219999999999999</v>
+        <v>0.1211</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.6647</v>
+        <v>21.938500000000001</v>
       </c>
       <c r="F10">
-        <v>0.82450000000000001</v>
+        <v>0.39639999999999997</v>
       </c>
       <c r="G10">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
+        <v>7.85E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.724399999999999</v>
+        <v>21.914999999999999</v>
       </c>
       <c r="F11">
-        <v>0.87390000000000001</v>
+        <v>0.39510000000000001</v>
       </c>
       <c r="G11">
-        <v>0.14549999999999999</v>
+        <v>7.85E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.326499999999999</v>
+        <v>29.134</v>
       </c>
       <c r="F12">
-        <v>0.8649</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="G12">
-        <v>0.1547</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.650700000000001</v>
+        <v>29.161300000000001</v>
       </c>
       <c r="F13">
-        <v>0.83530000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G13">
-        <v>7.8100000000000003E-2</v>
+        <v>0.1203</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>28.956499999999998</v>
+        <v>28.803000000000001</v>
       </c>
       <c r="F14">
-        <v>0.87619999999999998</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="G14">
-        <v>7.6999999999999999E-2</v>
+        <v>0.11219999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.9405</v>
+        <v>28.812200000000001</v>
       </c>
       <c r="F15">
-        <v>0.87739999999999996</v>
+        <v>0.87290000000000001</v>
       </c>
       <c r="G15">
-        <v>8.3699999999999997E-2</v>
+        <v>0.1124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.511399999999998</v>
+        <v>26.6647</v>
       </c>
       <c r="F16">
-        <v>0.89119999999999999</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="G16">
-        <v>0.1094</v>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>25.954000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>28.724399999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.14549999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>28.7517</v>
+      </c>
+      <c r="F19">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>28.326499999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.8649</v>
+      </c>
+      <c r="G20">
+        <v>0.1547</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>28.438500000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="G21">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>27.650700000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="G22">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>27.6511</v>
+      </c>
+      <c r="F23">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="G23">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>28.956499999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G24">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>28.957999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>28.9405</v>
+      </c>
+      <c r="F26">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="G26">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>28.9496</v>
+      </c>
+      <c r="F27">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G27">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
         <v>500</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>29.511399999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>29.539400000000001</v>
       </c>
-      <c r="F17">
+      <c r="F29">
         <v>0.89190000000000003</v>
       </c>
-      <c r="G17">
+      <c r="G29">
         <v>0.1094</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>29.383400000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="G30">
+        <v>0.1343</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>28.949300000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="G31">
+        <v>0.125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>29.249300000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>29.269300000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E7 E9:E1048576">
+  <conditionalFormatting sqref="E14:E1048576 E1:E12">
     <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F7 F9:F1048576">
+  <conditionalFormatting sqref="F14:F1048576 F1:F12">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G7 G9:G1048576">
+  <conditionalFormatting sqref="G14:G1048576 G1:G12">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXPERIMENT_TRACKING.xlsx
+++ b/EXPERIMENT_TRACKING.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA\deblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCDD47-9FDB-4082-8DCA-463E0F385F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09980FB7-CB2A-4D6D-8FED-8D2F12C79734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t xml:space="preserve">Experiment </t>
   </si>
@@ -142,6 +145,45 @@
   </si>
   <si>
     <t>version_15</t>
+  </si>
+  <si>
+    <t>num_encoder_blocks=[1,1,1,14]</t>
+  </si>
+  <si>
+    <t>num_encoder_blocks=[1,1,1,7]</t>
+  </si>
+  <si>
+    <t>version_16</t>
+  </si>
+  <si>
+    <t>version_17</t>
+  </si>
+  <si>
+    <t>version_18</t>
+  </si>
+  <si>
+    <t>0.8MSE+0.2LPIPSLoss</t>
+  </si>
+  <si>
+    <t>version_19</t>
+  </si>
+  <si>
+    <t>L1RandomPerceptualLossLastLayerMini</t>
+  </si>
+  <si>
+    <t>Best is also last.ckpt</t>
+  </si>
+  <si>
+    <t>version_20</t>
+  </si>
+  <si>
+    <t>No MaxPool2d</t>
+  </si>
+  <si>
+    <t>version_21</t>
+  </si>
+  <si>
+    <t>ResizeLoss</t>
   </si>
 </sst>
 </file>
@@ -496,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,8 +550,8 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1305,6 +1347,9 @@
       <c r="G32">
         <v>0.1162</v>
       </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1332,17 +1377,295 @@
         <v>21</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>29.0029</v>
+      </c>
+      <c r="F34">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>500</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>29.006499999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.1239</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>29.6951</v>
+      </c>
+      <c r="F36">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="G36">
+        <v>0.14810000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>29.691299999999998</v>
+      </c>
+      <c r="F37">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="G37">
+        <v>0.1482</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>28.527699999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="G38">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>28.5336</v>
+      </c>
+      <c r="F39">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="G39">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>29.179400000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.1061</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>29.6831</v>
+      </c>
+      <c r="F41">
+        <v>0.8931</v>
+      </c>
+      <c r="G41">
+        <v>0.1474</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>500</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>29.740600000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="G42">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>500</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>17.7407</v>
+      </c>
+      <c r="F43">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.48459999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>500</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>17.7376</v>
+      </c>
+      <c r="F44">
+        <v>0.2482</v>
+      </c>
+      <c r="G44">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E14:E1048576 E1:E12">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  <conditionalFormatting sqref="E1:E12 E14:E1048576">
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F1048576 F1:F12">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  <conditionalFormatting sqref="F1:F12 F14:F1048576">
+    <cfRule type="top10" dxfId="1" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G1048576 G1:G12">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="G1:G12 G14:G1048576">
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EXPERIMENT_TRACKING.xlsx
+++ b/EXPERIMENT_TRACKING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA\deblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09980FB7-CB2A-4D6D-8FED-8D2F12C79734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFBC63E-1DEA-4975-95CF-82DAEF40E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
   <si>
     <t xml:space="preserve">Experiment </t>
   </si>
@@ -184,6 +184,54 @@
   </si>
   <si>
     <t>ResizeLoss</t>
+  </si>
+  <si>
+    <t>version_22</t>
+  </si>
+  <si>
+    <t>With first layer</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>Mini=&gt;SCALE=1</t>
+  </si>
+  <si>
+    <t>No Mini=&gt;SCALE=4</t>
+  </si>
+  <si>
+    <t>version_23</t>
+  </si>
+  <si>
+    <t>Random all layers</t>
+  </si>
+  <si>
+    <t>L1RandomPerceptualLossLastLayerResetAllMini</t>
+  </si>
+  <si>
+    <t>version_24</t>
+  </si>
+  <si>
+    <t>No reset</t>
+  </si>
+  <si>
+    <t>version_25</t>
+  </si>
+  <si>
+    <t>version_26</t>
+  </si>
+  <si>
+    <t>DoubleL1RandomPerceptualLossLastLayerMini</t>
+  </si>
+  <si>
+    <t>version_27</t>
+  </si>
+  <si>
+    <t>version_28</t>
+  </si>
+  <si>
+    <t>PsuedoGANLoss</t>
   </si>
 </sst>
 </file>
@@ -538,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,9 +601,10 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +629,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -603,8 +655,11 @@
       <c r="G2">
         <v>0.2397</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -629,8 +684,11 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -653,7 +711,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -679,7 +737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -702,7 +760,7 @@
         <v>0.16550000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -728,7 +786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -751,7 +809,7 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -777,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -800,7 +858,7 @@
         <v>7.85E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -826,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -849,7 +907,7 @@
         <v>0.1216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -875,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -898,7 +956,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -924,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1651,6 +1709,364 @@
         <v>0.48430000000000001</v>
       </c>
       <c r="H44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>28.414200000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>500</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>28.417100000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>500</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>28.8001</v>
+      </c>
+      <c r="F47">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="G47">
+        <v>0.1081</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>500</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>28.819199999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>500</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>28.759599999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="G49">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>500</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>28.822299999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G50">
+        <v>0.1123</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>29.038599999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="G51">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>29.039300000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>27.523099999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.1656</v>
+      </c>
+      <c r="H53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>500</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>27.528199999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="G54">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>500</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>28.560099999999998</v>
+      </c>
+      <c r="F55">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G55">
+        <v>0.14510000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>500</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>28.5549</v>
+      </c>
+      <c r="F56">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.1454</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>28.767099999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="G57">
+        <v>0.1396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>500</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>28.892499999999998</v>
+      </c>
+      <c r="F58">
+        <v>0.877</v>
+      </c>
+      <c r="G58">
+        <v>0.1343</v>
+      </c>
+      <c r="H58" t="s">
         <v>21</v>
       </c>
     </row>

--- a/EXPERIMENT_TRACKING.xlsx
+++ b/EXPERIMENT_TRACKING.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA\deblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFBC63E-1DEA-4975-95CF-82DAEF40E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A67C3-8BB1-486E-8643-D114B81E57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$41</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
   <si>
     <t xml:space="preserve">Experiment </t>
   </si>
@@ -232,6 +233,30 @@
   </si>
   <si>
     <t>PsuedoGANLoss</t>
+  </si>
+  <si>
+    <t>PerceptualLoss</t>
+  </si>
+  <si>
+    <t>version_29</t>
+  </si>
+  <si>
+    <t>vgg16_bn</t>
+  </si>
+  <si>
+    <t>version_30</t>
+  </si>
+  <si>
+    <t>vgg16</t>
+  </si>
+  <si>
+    <t>version_31</t>
+  </si>
+  <si>
+    <t>0.8MSE+0.2PerceptualLoss</t>
+  </si>
+  <si>
+    <t>FAIL due to unknown reason, probably because of batch norm.</t>
   </si>
 </sst>
 </file>
@@ -273,8 +298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +627,7 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1494,7 +1520,7 @@
       <c r="B36">
         <v>500</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="b">
@@ -1566,7 +1592,7 @@
       <c r="B39">
         <v>500</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D39" t="b">
@@ -1816,7 +1842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1842,7 +1868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1868,7 +1894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1894,7 +1920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1920,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1946,7 +1972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1995,7 +2021,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2021,7 +2047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2044,7 +2070,7 @@
         <v>0.1396</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2070,18 +2096,151 @@
         <v>21</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>500</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>500</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>22.538599999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.4476</v>
+      </c>
+      <c r="G60">
+        <v>0.1008</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <v>500</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>22.518599999999999</v>
+      </c>
+      <c r="F61">
+        <v>0.4451</v>
+      </c>
+      <c r="G61">
+        <v>0.1003</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>500</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>29.402799999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="G62">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>500</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>29.403199999999998</v>
+      </c>
+      <c r="F63">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="G63">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E12 E14:E1048576">
+  <conditionalFormatting sqref="E1:E12 E14:E58 E60:E1048576">
     <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F12 F14:F1048576">
+  <conditionalFormatting sqref="F1:F12 F14:F58 F60:F1048576">
     <cfRule type="top10" dxfId="1" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G12 G14:G1048576">
+  <conditionalFormatting sqref="G1:G12 G14:G58 G60:G1048576">
     <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AAB2FD-FF2C-4AB9-A365-3D7306AD3752}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>